--- a/ResultatWimbeldon.xlsx
+++ b/ResultatWimbeldon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikerr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikerr\Code\TFG\Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0DDBDA-3ABE-4C56-A48B-7C78E7717498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09255360-EEA0-4E0C-9181-0460AA578EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" xr2:uid="{0ED45994-5EFE-4A4E-8BA9-C3AA32741888}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" activeTab="7" xr2:uid="{0ED45994-5EFE-4A4E-8BA9-C3AA32741888}"/>
   </bookViews>
   <sheets>
     <sheet name="Ronda 1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Quarts" sheetId="5" r:id="rId5"/>
     <sheet name="Semi" sheetId="6" r:id="rId6"/>
     <sheet name="Final" sheetId="7" r:id="rId7"/>
+    <sheet name="Resultats" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Ronda 1'!$A$1:$G$65</definedName>
@@ -27,6 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Ronda 3'!$A$1:$G$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="206">
   <si>
     <t>Jugador 1</t>
   </si>
@@ -649,7 +651,22 @@
     <t>Total encertats:</t>
   </si>
   <si>
-    <t>% acert:</t>
+    <t>IBM % acert:</t>
+  </si>
+  <si>
+    <t>Iker % acert:</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>Iker</t>
+  </si>
+  <si>
+    <t>Total  acertats</t>
+  </si>
+  <si>
+    <t>% acertats</t>
   </si>
 </sst>
 </file>
@@ -680,7 +697,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -693,8 +710,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -750,15 +779,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -768,13 +866,20 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -814,13 +919,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1189,9 +1287,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733616C7-25F8-4522-B3D0-0114E321248B}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1234,10 +1332,10 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>79</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>21</v>
       </c>
       <c r="E2" t="s">
@@ -1259,20 +1357,20 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>53</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>47</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" t="str">
         <f t="shared" ref="F3:F65" si="0">LEFT(IF(C3&gt;D3, A3, B3), FIND(",", IF(C3&gt;D3, A3, B3)) - 1)</f>
         <v>TSENG</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <f t="shared" ref="G3:G65" si="1">IF(F3=E3, 1, 0)</f>
         <v>0</v>
       </c>
@@ -1284,27 +1382,27 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>70</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>30</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="F4" t="str">
         <f t="shared" si="0"/>
         <v>MARTÍNEZ</v>
       </c>
-      <c r="G4" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>37</v>
       </c>
     </row>
@@ -1315,54 +1413,61 @@
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>41</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>59</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" t="str">
         <f t="shared" si="0"/>
         <v>SHAPOVALOV</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <f>37/64</f>
         <v>0.578125</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>67</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>33</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" t="str">
         <f t="shared" si="0"/>
         <v>DIMITROV</v>
       </c>
-      <c r="G6" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K6" s="6">
+        <f>58/64</f>
+        <v>0.90625</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -1372,20 +1477,20 @@
       <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>46</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>54</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F7" t="str">
         <f t="shared" si="0"/>
         <v>MOUTET</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1397,20 +1502,20 @@
       <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>34</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>66</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="2" t="str">
+      <c r="F8" t="str">
         <f t="shared" si="0"/>
         <v>MEDJEDOVIC</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1422,20 +1527,20 @@
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>29</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>71</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="2" t="str">
+      <c r="F9" t="str">
         <f t="shared" si="0"/>
         <v>PAUL</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1447,20 +1552,20 @@
       <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>72</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>28</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="2" t="str">
+      <c r="F10" t="str">
         <f t="shared" si="0"/>
         <v>SHELTON</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1472,20 +1577,20 @@
       <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>47</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>53</v>
       </c>
       <c r="E11" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="2" t="str">
+      <c r="F11" t="str">
         <f t="shared" si="0"/>
         <v>GOFFIN</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1497,20 +1602,20 @@
       <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>56</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>44</v>
       </c>
       <c r="E12" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="2" t="str">
+      <c r="F12" t="str">
         <f t="shared" si="0"/>
         <v>KOVACEVIC</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1522,20 +1627,20 @@
       <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>47</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>53</v>
       </c>
       <c r="E13" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="2" t="str">
+      <c r="F13" t="str">
         <f t="shared" si="0"/>
         <v>HUMBERT</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1547,20 +1652,20 @@
       <c r="B14" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>58</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>42</v>
       </c>
       <c r="E14" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="2" t="str">
+      <c r="F14" t="str">
         <f t="shared" si="0"/>
         <v>NAKASHIMA</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1572,20 +1677,20 @@
       <c r="B15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>40</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>60</v>
       </c>
       <c r="E15" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="2" t="str">
+      <c r="F15" t="str">
         <f t="shared" si="0"/>
         <v>OPELKA</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1597,20 +1702,20 @@
       <c r="B16" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>39</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>61</v>
       </c>
       <c r="E16" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="2" t="str">
+      <c r="F16" t="str">
         <f t="shared" si="0"/>
         <v>SONEGO</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1622,20 +1727,20 @@
       <c r="B17" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>16</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>84</v>
       </c>
       <c r="E17" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="2" t="str">
+      <c r="F17" t="str">
         <f t="shared" si="0"/>
         <v>MUSETTI</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1647,20 +1752,20 @@
       <c r="B18" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>80</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>20</v>
       </c>
       <c r="E18" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="2" t="str">
+      <c r="F18" t="str">
         <f t="shared" si="0"/>
         <v>DRAPER</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1672,20 +1777,20 @@
       <c r="B19" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>57</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>43</v>
       </c>
       <c r="E19" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="2" t="str">
+      <c r="F19" t="str">
         <f t="shared" si="0"/>
         <v>COLLIGNON</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1697,20 +1802,20 @@
       <c r="B20" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>37</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>63</v>
       </c>
       <c r="E20" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="2" t="str">
+      <c r="F20" t="str">
         <f t="shared" si="0"/>
         <v>MAROZSAN</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1722,20 +1827,20 @@
       <c r="B21" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>48</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>52</v>
       </c>
       <c r="E21" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="2" t="str">
+      <c r="F21" t="str">
         <f t="shared" si="0"/>
         <v>BUBLIK</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1747,20 +1852,20 @@
       <c r="B22" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>69</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>31</v>
       </c>
       <c r="E22" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="2" t="str">
+      <c r="F22" t="str">
         <f t="shared" si="0"/>
         <v>COBOLLI</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1772,20 +1877,20 @@
       <c r="B23" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>73</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>27</v>
       </c>
       <c r="E23" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="2" t="str">
+      <c r="F23" t="str">
         <f t="shared" si="0"/>
         <v>ETCHEVERRY</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1797,20 +1902,20 @@
       <c r="B24" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>53</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>47</v>
       </c>
       <c r="E24" t="s">
         <v>71</v>
       </c>
-      <c r="F24" s="2" t="str">
+      <c r="F24" t="str">
         <f t="shared" si="0"/>
         <v>GIRON</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1822,20 +1927,20 @@
       <c r="B25" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>35</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>65</v>
       </c>
       <c r="E25" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="2" t="str">
+      <c r="F25" t="str">
         <f t="shared" si="0"/>
         <v>MENSIK</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1847,20 +1952,20 @@
       <c r="B26" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>65</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>35</v>
       </c>
       <c r="E26" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="2" t="str">
+      <c r="F26" t="str">
         <f t="shared" si="0"/>
         <v>DE MINAUR</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1872,20 +1977,20 @@
       <c r="B27" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>54</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>46</v>
       </c>
       <c r="E27" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="2" t="str">
+      <c r="F27" t="str">
         <f t="shared" si="0"/>
         <v>CAZAUX</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1897,20 +2002,20 @@
       <c r="B28" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>69</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>31</v>
       </c>
       <c r="E28" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="2" t="str">
+      <c r="F28" t="str">
         <f t="shared" si="0"/>
         <v>HALYS</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1922,20 +2027,20 @@
       <c r="B29" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>37</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>63</v>
       </c>
       <c r="E29" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="2" t="str">
+      <c r="F29" t="str">
         <f t="shared" si="0"/>
         <v>MACHAC</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1947,20 +2052,20 @@
       <c r="B30" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>51</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>49</v>
       </c>
       <c r="E30" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="2" t="str">
+      <c r="F30" t="str">
         <f t="shared" si="0"/>
         <v>MICHELSEN</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1972,20 +2077,20 @@
       <c r="B31" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>48</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>52</v>
       </c>
       <c r="E31" t="s">
         <v>92</v>
       </c>
-      <c r="F31" s="2" t="str">
+      <c r="F31" t="str">
         <f t="shared" si="0"/>
         <v>EUBANKS</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1997,20 +2102,20 @@
       <c r="B32" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>52</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <v>48</v>
       </c>
       <c r="E32" t="s">
         <v>95</v>
       </c>
-      <c r="F32" s="2" t="str">
+      <c r="F32" t="str">
         <f t="shared" si="0"/>
         <v>EVANS</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2022,20 +2127,20 @@
       <c r="B33" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>30</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>70</v>
       </c>
       <c r="E33" t="s">
         <v>98</v>
       </c>
-      <c r="F33" s="2" t="str">
+      <c r="F33" t="str">
         <f t="shared" si="0"/>
         <v>DJOKOVIC</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2047,20 +2152,20 @@
       <c r="B34" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>51</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>49</v>
       </c>
       <c r="E34" t="s">
         <v>101</v>
       </c>
-      <c r="F34" s="2" t="str">
+      <c r="F34" t="str">
         <f t="shared" si="0"/>
         <v>FRITZ</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2072,20 +2177,20 @@
       <c r="B35" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>46</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>54</v>
       </c>
       <c r="E35" t="s">
         <v>104</v>
       </c>
-      <c r="F35" s="2" t="str">
+      <c r="F35" t="str">
         <f t="shared" si="0"/>
         <v>ALTMAIER</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2097,20 +2202,20 @@
       <c r="B36" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>60</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <v>40</v>
       </c>
       <c r="E36" t="s">
         <v>107</v>
       </c>
-      <c r="F36" s="2" t="str">
+      <c r="F36" t="str">
         <f t="shared" si="0"/>
         <v>ARNALDI</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2122,20 +2227,20 @@
       <c r="B37" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>34</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>66</v>
       </c>
       <c r="E37" t="s">
         <v>110</v>
       </c>
-      <c r="F37" s="2" t="str">
+      <c r="F37" t="str">
         <f t="shared" si="0"/>
         <v>DAVIDOVICH FOKINA</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2147,20 +2252,20 @@
       <c r="B38" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>76</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>24</v>
       </c>
       <c r="E38" t="s">
         <v>113</v>
       </c>
-      <c r="F38" s="2" t="str">
+      <c r="F38" t="str">
         <f t="shared" si="0"/>
         <v>POPYRIN</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2172,20 +2277,20 @@
       <c r="B39" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>56</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>44</v>
       </c>
       <c r="E39" t="s">
         <v>116</v>
       </c>
-      <c r="F39" s="2" t="str">
+      <c r="F39" t="str">
         <f t="shared" si="0"/>
         <v>DARDERI</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2197,20 +2302,20 @@
       <c r="B40" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>48</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <v>52</v>
       </c>
       <c r="E40" t="s">
         <v>119</v>
       </c>
-      <c r="F40" s="2" t="str">
+      <c r="F40" t="str">
         <f t="shared" si="0"/>
         <v>THOMPSON</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2222,20 +2327,20 @@
       <c r="B41" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>24</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>76</v>
       </c>
       <c r="E41" t="s">
         <v>122</v>
       </c>
-      <c r="F41" s="2" t="str">
+      <c r="F41" t="str">
         <f t="shared" si="0"/>
         <v>MEDVEDEV</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2247,20 +2352,20 @@
       <c r="B42" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>58</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>42</v>
       </c>
       <c r="E42" t="s">
         <v>125</v>
       </c>
-      <c r="F42" s="2" t="str">
+      <c r="F42" t="str">
         <f t="shared" si="0"/>
         <v>CERUNDOLO</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2272,20 +2377,20 @@
       <c r="B43" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>51</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <v>49</v>
       </c>
       <c r="E43" t="s">
         <v>128</v>
       </c>
-      <c r="F43" s="2" t="str">
+      <c r="F43" t="str">
         <f t="shared" si="0"/>
         <v>HARRIS</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2297,20 +2402,20 @@
       <c r="B44" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <v>69</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="2">
         <v>31</v>
       </c>
       <c r="E44" t="s">
         <v>131</v>
       </c>
-      <c r="F44" s="2" t="str">
+      <c r="F44" t="str">
         <f t="shared" si="0"/>
         <v>MOCHIZUKI</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2322,20 +2427,20 @@
       <c r="B45" t="s">
         <v>133</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="2">
         <v>35</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="2">
         <v>65</v>
       </c>
       <c r="E45" t="s">
         <v>134</v>
       </c>
-      <c r="F45" s="2" t="str">
+      <c r="F45" t="str">
         <f t="shared" si="0"/>
         <v>KHACHANOV</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2347,20 +2452,20 @@
       <c r="B46" t="s">
         <v>136</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="2">
         <v>64</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="2">
         <v>36</v>
       </c>
       <c r="E46" t="s">
         <v>137</v>
       </c>
-      <c r="F46" s="2" t="str">
+      <c r="F46" t="str">
         <f t="shared" si="0"/>
         <v>BERRETTINI</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2372,20 +2477,20 @@
       <c r="B47" t="s">
         <v>139</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <v>75</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="2">
         <v>25</v>
       </c>
       <c r="E47" t="s">
         <v>140</v>
       </c>
-      <c r="F47" s="2" t="str">
+      <c r="F47" t="str">
         <f t="shared" si="0"/>
         <v>QUINN</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2397,20 +2502,20 @@
       <c r="B48" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="2">
         <v>48</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="2">
         <v>52</v>
       </c>
       <c r="E48" t="s">
         <v>143</v>
       </c>
-      <c r="F48" s="2" t="str">
+      <c r="F48" t="str">
         <f t="shared" si="0"/>
         <v>RODESCH</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2422,20 +2527,20 @@
       <c r="B49" t="s">
         <v>145</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="2">
         <v>23</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="2">
         <v>77</v>
       </c>
       <c r="E49" t="s">
         <v>146</v>
       </c>
-      <c r="F49" s="2" t="str">
+      <c r="F49" t="str">
         <f t="shared" si="0"/>
         <v>ZVEREV</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2447,20 +2552,20 @@
       <c r="B50" t="s">
         <v>148</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="2">
         <v>87</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="2">
         <v>13</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
       </c>
-      <c r="F50" s="2" t="str">
+      <c r="F50" t="str">
         <f t="shared" si="0"/>
         <v>RUNE</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2472,20 +2577,20 @@
       <c r="B51" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="2">
         <v>60</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="2">
         <v>40</v>
       </c>
       <c r="E51" t="s">
         <v>152</v>
       </c>
-      <c r="F51" s="2" t="str">
+      <c r="F51" t="str">
         <f t="shared" si="0"/>
         <v>TIEN</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2497,20 +2602,20 @@
       <c r="B52" t="s">
         <v>154</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="2">
         <v>37</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="2">
         <v>63</v>
       </c>
       <c r="E52" t="s">
         <v>155</v>
       </c>
-      <c r="F52" s="2" t="str">
+      <c r="F52" t="str">
         <f t="shared" si="0"/>
         <v>FONSECA</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2522,20 +2627,20 @@
       <c r="B53" t="s">
         <v>157</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="2">
         <v>35</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="2">
         <v>65</v>
       </c>
       <c r="E53" t="s">
         <v>158</v>
       </c>
-      <c r="F53" s="2" t="str">
+      <c r="F53" t="str">
         <f t="shared" si="0"/>
         <v>GRIEKSPOOR</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2547,20 +2652,20 @@
       <c r="B54" t="s">
         <v>160</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="2">
         <v>59</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="2">
         <v>41</v>
       </c>
       <c r="E54" t="s">
         <v>161</v>
       </c>
-      <c r="F54" s="2" t="str">
+      <c r="F54" t="str">
         <f t="shared" si="0"/>
         <v>LEHECKA</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2572,20 +2677,20 @@
       <c r="B55" t="s">
         <v>163</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="2">
         <v>71</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="2">
         <v>29</v>
       </c>
       <c r="E55" t="s">
         <v>164</v>
       </c>
-      <c r="F55" s="2" t="str">
+      <c r="F55" t="str">
         <f t="shared" si="0"/>
         <v>BELLUCCI</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2597,20 +2702,20 @@
       <c r="B56" t="s">
         <v>166</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="2">
         <v>54</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="2">
         <v>46</v>
       </c>
       <c r="E56" t="s">
         <v>167</v>
       </c>
-      <c r="F56" s="2" t="str">
+      <c r="F56" t="str">
         <f t="shared" si="0"/>
         <v>NORRIE</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2622,20 +2727,20 @@
       <c r="B57" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="2">
         <v>31</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="2">
         <v>69</v>
       </c>
       <c r="E57" t="s">
         <v>170</v>
       </c>
-      <c r="F57" s="2" t="str">
+      <c r="F57" t="str">
         <f t="shared" si="0"/>
         <v>TIAFOE</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2647,20 +2752,20 @@
       <c r="B58" t="s">
         <v>172</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="2">
         <v>62</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="2">
         <v>38</v>
       </c>
       <c r="E58" t="s">
         <v>173</v>
       </c>
-      <c r="F58" s="2" t="str">
+      <c r="F58" t="str">
         <f t="shared" si="0"/>
         <v>RUBLEV</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2672,20 +2777,20 @@
       <c r="B59" t="s">
         <v>175</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="2">
         <v>73</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="2">
         <v>27</v>
       </c>
       <c r="E59" t="s">
         <v>128</v>
       </c>
-      <c r="F59" s="2" t="str">
+      <c r="F59" t="str">
         <f t="shared" si="0"/>
         <v>BERGS</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2697,20 +2802,20 @@
       <c r="B60" t="s">
         <v>177</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="2">
         <v>42</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="2">
         <v>58</v>
       </c>
       <c r="E60" t="s">
         <v>178</v>
       </c>
-      <c r="F60" s="2" t="str">
+      <c r="F60" t="str">
         <f t="shared" si="0"/>
         <v>O'CONNELL</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2722,20 +2827,20 @@
       <c r="B61" t="s">
         <v>180</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="2">
         <v>38</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="2">
         <v>62</v>
       </c>
       <c r="E61" t="s">
         <v>181</v>
       </c>
-      <c r="F61" s="2" t="str">
+      <c r="F61" t="str">
         <f t="shared" si="0"/>
         <v>TSITSIPAS</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2747,20 +2852,20 @@
       <c r="B62" t="s">
         <v>183</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="2">
         <v>69</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="2">
         <v>31</v>
       </c>
       <c r="E62" t="s">
         <v>184</v>
       </c>
-      <c r="F62" s="2" t="str">
+      <c r="F62" t="str">
         <f t="shared" si="0"/>
         <v>AUGER-ALIASSIME</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2772,20 +2877,20 @@
       <c r="B63" t="s">
         <v>186</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="2">
         <v>42</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="2">
         <v>58</v>
       </c>
       <c r="E63" t="s">
         <v>187</v>
       </c>
-      <c r="F63" s="2" t="str">
+      <c r="F63" t="str">
         <f t="shared" si="0"/>
         <v>MISOLIC</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2797,20 +2902,20 @@
       <c r="B64" t="s">
         <v>189</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="2">
         <v>46</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="2">
         <v>54</v>
       </c>
       <c r="E64" t="s">
         <v>190</v>
       </c>
-      <c r="F64" s="2" t="str">
+      <c r="F64" t="str">
         <f t="shared" si="0"/>
         <v>RIEDI</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2822,20 +2927,20 @@
       <c r="B65" t="s">
         <v>192</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="2">
         <v>13</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="2">
         <v>87</v>
       </c>
       <c r="E65" t="s">
         <v>193</v>
       </c>
-      <c r="F65" s="2" t="str">
+      <c r="F65" t="str">
         <f t="shared" si="0"/>
         <v>ALCARAZ</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2843,10 +2948,10 @@
   </sheetData>
   <autoFilter ref="A1:G65" xr:uid="{733616C7-25F8-4522-B3D0-0114E321248B}"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2860,7 +2965,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4:K5"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2912,11 +3017,11 @@
         <v>187</v>
       </c>
       <c r="F2" t="str">
-        <f>LEFT(IF(C2&gt;D2, A2, B2), FIND(",", IF(C2&gt;D2, A2, B2)) - 1)</f>
+        <f t="shared" ref="F2:F33" si="0">LEFT(IF(C2&gt;D2, A2, B2), FIND(",", IF(C2&gt;D2, A2, B2)) - 1)</f>
         <v>AUGER-ALIASSIME</v>
       </c>
       <c r="G2">
-        <f>IF(F2=E2, 1, 0)</f>
+        <f t="shared" ref="G2:G33" si="1">IF(F2=E2, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2936,12 +3041,12 @@
       <c r="E3" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="2" t="str">
-        <f>LEFT(IF(C3&gt;D3, A3, B3), FIND(",", IF(C3&gt;D3, A3, B3)) - 1)</f>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
         <v>BORGES</v>
       </c>
-      <c r="G3" s="2">
-        <f>IF(F3=E3, 1, 0)</f>
+      <c r="G3">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2961,18 +3066,18 @@
       <c r="E4" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="2" t="str">
-        <f>LEFT(IF(C4&gt;D4, A4, B4), FIND(",", IF(C4&gt;D4, A4, B4)) - 1)</f>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
         <v>COBOLLI</v>
       </c>
-      <c r="G4" s="2">
-        <f>IF(F4=E4, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>22</v>
       </c>
     </row>
@@ -2992,23 +3097,23 @@
       <c r="E5" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="2" t="str">
-        <f>LEFT(IF(C5&gt;D5, A5, B5), FIND(",", IF(C5&gt;D5, A5, B5)) - 1)</f>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
         <v>DE MINAUR</v>
       </c>
-      <c r="G5" s="2">
-        <f>IF(F5=E5, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="J5" s="6" t="s">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <f>22/32</f>
         <v>0.6875</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -3024,13 +3129,20 @@
       <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="2" t="str">
-        <f>LEFT(IF(C6&gt;D6, A6, B6), FIND(",", IF(C6&gt;D6, A6, B6)) - 1)</f>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
         <v>DIMITROV</v>
       </c>
-      <c r="G6" s="2">
-        <f>IF(F6=E6, 1, 0)</f>
-        <v>1</v>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K6" s="6">
+        <f>27/32</f>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -3049,12 +3161,12 @@
       <c r="E7" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="2" t="str">
-        <f>LEFT(IF(C7&gt;D7, A7, B7), FIND(",", IF(C7&gt;D7, A7, B7)) - 1)</f>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
         <v>DRAPER</v>
       </c>
-      <c r="G7" s="2">
-        <f>IF(F7=E7, 1, 0)</f>
+      <c r="G7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3074,12 +3186,12 @@
       <c r="E8" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="2" t="str">
-        <f>LEFT(IF(C8&gt;D8, A8, B8), FIND(",", IF(C8&gt;D8, A8, B8)) - 1)</f>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
         <v>DJOKOVIC</v>
       </c>
-      <c r="G8" s="2">
-        <f>IF(F8=E8, 1, 0)</f>
+      <c r="G8">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3099,12 +3211,12 @@
       <c r="E9" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="2" t="str">
-        <f>LEFT(IF(C9&gt;D9, A9, B9), FIND(",", IF(C9&gt;D9, A9, B9)) - 1)</f>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
         <v>DARDERI</v>
       </c>
-      <c r="G9" s="2">
-        <f>IF(F9=E9, 1, 0)</f>
+      <c r="G9">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3124,12 +3236,12 @@
       <c r="E10" t="s">
         <v>155</v>
       </c>
-      <c r="F10" s="2" t="str">
-        <f>LEFT(IF(C10&gt;D10, A10, B10), FIND(",", IF(C10&gt;D10, A10, B10)) - 1)</f>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
         <v>FONSECA</v>
       </c>
-      <c r="G10" s="2">
-        <f>IF(F10=E10, 1, 0)</f>
+      <c r="G10">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3149,12 +3261,12 @@
       <c r="E11" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="2" t="str">
-        <f>LEFT(IF(C11&gt;D11, A11, B11), FIND(",", IF(C11&gt;D11, A11, B11)) - 1)</f>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
         <v>FRITZ</v>
       </c>
-      <c r="G11" s="2">
-        <f>IF(F11=E11, 1, 0)</f>
+      <c r="G11">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3174,12 +3286,12 @@
       <c r="E12" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="2" t="str">
-        <f>LEFT(IF(C12&gt;D12, A12, B12), FIND(",", IF(C12&gt;D12, A12, B12)) - 1)</f>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
         <v>MONFILS</v>
       </c>
-      <c r="G12" s="2">
-        <f>IF(F12=E12, 1, 0)</f>
+      <c r="G12">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3199,12 +3311,12 @@
       <c r="E13" t="s">
         <v>146</v>
       </c>
-      <c r="F13" s="2" t="str">
-        <f>LEFT(IF(C13&gt;D13, A13, B13), FIND(",", IF(C13&gt;D13, A13, B13)) - 1)</f>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
         <v>RINDERKNECH</v>
       </c>
-      <c r="G13" s="2">
-        <f>IF(F13=E13, 1, 0)</f>
+      <c r="G13">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3224,12 +3336,12 @@
       <c r="E14" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="2" t="str">
-        <f>LEFT(IF(C14&gt;D14, A14, B14), FIND(",", IF(C14&gt;D14, A14, B14)) - 1)</f>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
         <v>MENSIK</v>
       </c>
-      <c r="G14" s="2">
-        <f>IF(F14=E14, 1, 0)</f>
+      <c r="G14">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3249,12 +3361,12 @@
       <c r="E15" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="2" t="str">
-        <f>LEFT(IF(C15&gt;D15, A15, B15), FIND(",", IF(C15&gt;D15, A15, B15)) - 1)</f>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
         <v>MACHAC</v>
       </c>
-      <c r="G15" s="2">
-        <f>IF(F15=E15, 1, 0)</f>
+      <c r="G15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3274,12 +3386,12 @@
       <c r="E16" t="s">
         <v>149</v>
       </c>
-      <c r="F16" s="2" t="str">
-        <f>LEFT(IF(C16&gt;D16, A16, B16), FIND(",", IF(C16&gt;D16, A16, B16)) - 1)</f>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
         <v>TIEN</v>
       </c>
-      <c r="G16" s="2">
-        <f>IF(F16=E16, 1, 0)</f>
+      <c r="G16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3299,12 +3411,12 @@
       <c r="E17" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="2" t="str">
-        <f>LEFT(IF(C17&gt;D17, A17, B17), FIND(",", IF(C17&gt;D17, A17, B17)) - 1)</f>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
         <v>KECMANOVIC</v>
       </c>
-      <c r="G17" s="2">
-        <f>IF(F17=E17, 1, 0)</f>
+      <c r="G17">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3324,12 +3436,12 @@
       <c r="E18" t="s">
         <v>164</v>
       </c>
-      <c r="F18" s="2" t="str">
-        <f>LEFT(IF(C18&gt;D18, A18, B18), FIND(",", IF(C18&gt;D18, A18, B18)) - 1)</f>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
         <v>LEHECKA</v>
       </c>
-      <c r="G18" s="2">
-        <f>IF(F18=E18, 1, 0)</f>
+      <c r="G18">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3349,12 +3461,12 @@
       <c r="E19" t="s">
         <v>137</v>
       </c>
-      <c r="F19" s="2" t="str">
-        <f>LEFT(IF(C19&gt;D19, A19, B19), FIND(",", IF(C19&gt;D19, A19, B19)) - 1)</f>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
         <v>QUINN</v>
       </c>
-      <c r="G19" s="2">
-        <f>IF(F19=E19, 1, 0)</f>
+      <c r="G19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3374,12 +3486,12 @@
       <c r="E20" t="s">
         <v>178</v>
       </c>
-      <c r="F20" s="2" t="str">
-        <f>LEFT(IF(C20&gt;D20, A20, B20), FIND(",", IF(C20&gt;D20, A20, B20)) - 1)</f>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
         <v>ROYER</v>
       </c>
-      <c r="G20" s="2">
-        <f>IF(F20=E20, 1, 0)</f>
+      <c r="G20">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3399,12 +3511,12 @@
       <c r="E21" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="2" t="str">
-        <f>LEFT(IF(C21&gt;D21, A21, B21), FIND(",", IF(C21&gt;D21, A21, B21)) - 1)</f>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
         <v>MUNAR</v>
       </c>
-      <c r="G21" s="2">
-        <f>IF(F21=E21, 1, 0)</f>
+      <c r="G21">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3424,12 +3536,12 @@
       <c r="E22" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="2" t="str">
-        <f>LEFT(IF(C22&gt;D22, A22, B22), FIND(",", IF(C22&gt;D22, A22, B22)) - 1)</f>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
         <v>MARTÍNEZ</v>
       </c>
-      <c r="G22" s="2">
-        <f>IF(F22=E22, 1, 0)</f>
+      <c r="G22">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3449,12 +3561,12 @@
       <c r="E23" t="s">
         <v>134</v>
       </c>
-      <c r="F23" s="2" t="str">
-        <f>LEFT(IF(C23&gt;D23, A23, B23), FIND(",", IF(C23&gt;D23, A23, B23)) - 1)</f>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
         <v>KHACHANOV</v>
       </c>
-      <c r="G23" s="2">
-        <f>IF(F23=E23, 1, 0)</f>
+      <c r="G23">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3474,12 +3586,12 @@
       <c r="E24" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="2" t="str">
-        <f>LEFT(IF(C24&gt;D24, A24, B24), FIND(",", IF(C24&gt;D24, A24, B24)) - 1)</f>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
         <v>NAKASHIMA</v>
       </c>
-      <c r="G24" s="2">
-        <f>IF(F24=E24, 1, 0)</f>
+      <c r="G24">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3499,12 +3611,12 @@
       <c r="E25" t="s">
         <v>167</v>
       </c>
-      <c r="F25" s="2" t="str">
-        <f>LEFT(IF(C25&gt;D25, A25, B25), FIND(",", IF(C25&gt;D25, A25, B25)) - 1)</f>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
         <v>TIAFOE</v>
       </c>
-      <c r="G25" s="2">
-        <f>IF(F25=E25, 1, 0)</f>
+      <c r="G25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3524,12 +3636,12 @@
       <c r="E26" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="2" t="str">
-        <f>LEFT(IF(C26&gt;D26, A26, B26), FIND(",", IF(C26&gt;D26, A26, B26)) - 1)</f>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
         <v>PAUL</v>
       </c>
-      <c r="G26" s="2">
-        <f>IF(F26=E26, 1, 0)</f>
+      <c r="G26">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3549,12 +3661,12 @@
       <c r="E27" t="s">
         <v>173</v>
       </c>
-      <c r="F27" s="2" t="str">
-        <f>LEFT(IF(C27&gt;D27, A27, B27), FIND(",", IF(C27&gt;D27, A27, B27)) - 1)</f>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
         <v>RUBLEV</v>
       </c>
-      <c r="G27" s="2">
-        <f>IF(F27=E27, 1, 0)</f>
+      <c r="G27">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3574,12 +3686,12 @@
       <c r="E28" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="2" t="str">
-        <f>LEFT(IF(C28&gt;D28, A28, B28), FIND(",", IF(C28&gt;D28, A28, B28)) - 1)</f>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
         <v>SHELTON</v>
       </c>
-      <c r="G28" s="2">
-        <f>IF(F28=E28, 1, 0)</f>
+      <c r="G28">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3599,12 +3711,12 @@
       <c r="E29" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="2" t="str">
-        <f>LEFT(IF(C29&gt;D29, A29, B29), FIND(",", IF(C29&gt;D29, A29, B29)) - 1)</f>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
         <v>SINNER</v>
       </c>
-      <c r="G29" s="2">
-        <f>IF(F29=E29, 1, 0)</f>
+      <c r="G29">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3624,12 +3736,12 @@
       <c r="E30" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="2" t="str">
-        <f>LEFT(IF(C30&gt;D30, A30, B30), FIND(",", IF(C30&gt;D30, A30, B30)) - 1)</f>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
         <v>SONEGO</v>
       </c>
-      <c r="G30" s="2">
-        <f>IF(F30=E30, 1, 0)</f>
+      <c r="G30">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3649,12 +3761,12 @@
       <c r="E31" t="s">
         <v>193</v>
       </c>
-      <c r="F31" s="2" t="str">
-        <f>LEFT(IF(C31&gt;D31, A31, B31), FIND(",", IF(C31&gt;D31, A31, B31)) - 1)</f>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
         <v>ALCARAZ</v>
       </c>
-      <c r="G31" s="2">
-        <f>IF(F31=E31, 1, 0)</f>
+      <c r="G31">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3674,12 +3786,12 @@
       <c r="E32" t="s">
         <v>119</v>
       </c>
-      <c r="F32" s="2" t="str">
-        <f>LEFT(IF(C32&gt;D32, A32, B32), FIND(",", IF(C32&gt;D32, A32, B32)) - 1)</f>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
         <v>THOMPSON</v>
       </c>
-      <c r="G32" s="2">
-        <f>IF(F32=E32, 1, 0)</f>
+      <c r="G32">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3699,12 +3811,12 @@
       <c r="E33" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="2" t="str">
-        <f>LEFT(IF(C33&gt;D33, A33, B33), FIND(",", IF(C33&gt;D33, A33, B33)) - 1)</f>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
         <v>DAVIDOVICH FOKINA</v>
       </c>
-      <c r="G33" s="2">
-        <f>IF(F33=E33, 1, 0)</f>
+      <c r="G33">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3715,10 +3827,10 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="G2:G33">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3728,11 +3840,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEA3751-FF78-4C3C-8ABE-F983B99484C6}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4:K5"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3770,19 +3882,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2">
         <v>85</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2">
         <v>15</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="str">
@@ -3795,395 +3907,399 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="8" t="s">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3">
         <v>70</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3">
         <v>30</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="8" t="str">
+      <c r="F3" t="str">
         <f t="shared" ref="F3:F17" si="0">LEFT(IF(C3&gt;D3, A3, B3), FIND(",", IF(C3&gt;D3, A3, B3)) - 1)</f>
         <v>DIMITROV</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3">
         <f t="shared" ref="G3:G17" si="1">IF(F3=E3, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4">
         <v>68</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4">
         <v>32</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="8" t="str">
+      <c r="F4" t="str">
         <f t="shared" si="0"/>
         <v>SHELTON</v>
       </c>
-      <c r="G4" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="8" t="s">
+      <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5">
         <v>49</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5">
         <v>51</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="8" t="str">
+      <c r="F5" t="str">
         <f t="shared" si="0"/>
         <v>SONEGO</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <f>11/16</f>
         <v>0.6875</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6">
         <v>43</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6">
         <v>57</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="8" t="str">
+      <c r="F6" t="str">
         <f t="shared" si="0"/>
         <v>MUNAR</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="J6" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K6" s="6">
+        <f>15/16</f>
+        <v>0.9375</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="A7" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7">
         <v>42</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7">
         <v>58</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="8" t="str">
+      <c r="F7" t="str">
         <f t="shared" si="0"/>
         <v>MENSIK</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="A8" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8">
         <v>72</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8">
         <v>28</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="8" t="str">
+      <c r="F8" t="str">
         <f t="shared" si="0"/>
         <v>DE MINAUR</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="A9" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9">
         <v>23</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9">
         <v>77</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="8" t="str">
+      <c r="F9" t="str">
         <f t="shared" si="0"/>
         <v>DJOKOVIC</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="A10" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10">
         <v>65</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10">
         <v>35</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="8" t="str">
+      <c r="F10" t="str">
         <f t="shared" si="0"/>
         <v>FRITZ</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="A11" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11">
         <v>52</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11">
         <v>48</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" t="s">
         <v>116</v>
       </c>
-      <c r="F11" s="8" t="str">
+      <c r="F11" t="str">
         <f t="shared" si="0"/>
         <v>DARDERI</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12">
         <v>48</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12">
         <v>52</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" t="s">
         <v>134</v>
       </c>
-      <c r="F12" s="8" t="str">
+      <c r="F12" t="str">
         <f t="shared" si="0"/>
         <v>KHACHANOV</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="A13" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" t="s">
         <v>144</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13">
         <v>43</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13">
         <v>57</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" t="s">
         <v>146</v>
       </c>
-      <c r="F13" s="8" t="str">
+      <c r="F13" t="str">
         <f t="shared" si="0"/>
         <v>RINDERKNECH</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="A14" t="s">
         <v>148</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" t="s">
         <v>154</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14">
         <v>35</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14">
         <v>65</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" t="s">
         <v>149</v>
       </c>
-      <c r="F14" s="8" t="str">
+      <c r="F14" t="str">
         <f t="shared" si="0"/>
         <v>FONSECA</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+      <c r="A15" t="s">
         <v>162</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15">
         <v>56</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15">
         <v>44</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" t="s">
         <v>167</v>
       </c>
-      <c r="F15" s="8" t="str">
+      <c r="F15" t="str">
         <f t="shared" si="0"/>
         <v>BELLUCCI</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+      <c r="A16" t="s">
         <v>171</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16">
         <v>71</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16">
         <v>29</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" t="s">
         <v>173</v>
       </c>
-      <c r="F16" s="8" t="str">
+      <c r="F16" t="str">
         <f t="shared" si="0"/>
         <v>RUBLEV</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
+      <c r="A17" t="s">
         <v>185</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" t="s">
         <v>192</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17">
         <v>11</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17">
         <v>89</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" t="s">
         <v>193</v>
       </c>
-      <c r="F17" s="8" t="str">
+      <c r="F17" t="str">
         <f t="shared" si="0"/>
         <v>ALCARAZ</v>
       </c>
-      <c r="G17" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G17" xr:uid="{ACEA3751-FF78-4C3C-8ABE-F983B99484C6}">
@@ -4192,11 +4308,11 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="G2:G17">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4209,7 +4325,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G9"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4247,19 +4363,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>86</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="str">
@@ -4272,196 +4388,203 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>63</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>37</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="8" t="str">
+      <c r="F3" t="str">
         <f t="shared" ref="F3:F9" si="0">LEFT(IF(C3&gt;D3, A3, B3), FIND(",", IF(C3&gt;D3, A3, B3)) - 1)</f>
         <v>SHELTON</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3">
         <f t="shared" ref="G3:G9" si="1">IF(F3=E3, 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>32</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>68</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="8" t="str">
+      <c r="F4" t="str">
         <f t="shared" si="0"/>
         <v>COBOLLI</v>
       </c>
-      <c r="G4" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="6">
         <f>8/8</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>29</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>71</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="8" t="str">
+      <c r="F5" t="str">
         <f t="shared" si="0"/>
         <v>DJOKOVIC</v>
       </c>
-      <c r="G5" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K5" s="6">
+        <f>7/8</f>
+        <v>0.875</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>77</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>23</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="8" t="str">
+      <c r="F6" t="str">
         <f t="shared" si="0"/>
         <v>FRITZ</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>68</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>32</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>134</v>
       </c>
-      <c r="F7" s="8" t="str">
+      <c r="F7" t="str">
         <f t="shared" si="0"/>
         <v>KHACHANOV</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>41</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>59</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s">
         <v>167</v>
       </c>
-      <c r="F8" s="8" t="str">
+      <c r="F8" t="str">
         <f t="shared" si="0"/>
         <v>NORRIE</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>171</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>25</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>75</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
         <v>193</v>
       </c>
-      <c r="F9" s="8" t="str">
+      <c r="F9" t="str">
         <f t="shared" si="0"/>
         <v>ALCARAZ</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G9">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4475,7 +4598,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G5"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4553,18 +4676,18 @@
       <c r="E3" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="8" t="str">
-        <f t="shared" ref="F3:F5" si="0">LEFT(IF(C3&gt;D3, A3, B3), FIND(",", IF(C3&gt;D3, A3, B3)) - 1)</f>
+      <c r="F3" t="str">
+        <f>LEFT(IF(C3&gt;D3, A3, B3), FIND(",", IF(C3&gt;D3, A3, B3)) - 1)</f>
         <v>DJOKOVIC</v>
       </c>
-      <c r="G3" s="8">
-        <f t="shared" ref="G3:G5" si="1">IF(F3=E3, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="G3">
+        <f>IF(F3=E3, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>4</v>
       </c>
     </row>
@@ -4584,23 +4707,23 @@
       <c r="E4" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="8" t="str">
-        <f t="shared" si="0"/>
+      <c r="F4" t="str">
+        <f>LEFT(IF(C4&gt;D4, A4, B4), FIND(",", IF(C4&gt;D4, A4, B4)) - 1)</f>
         <v>FRITZ</v>
       </c>
-      <c r="G4" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="G4">
+        <f>IF(F4=E4, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="6">
         <f>4/4</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>192</v>
       </c>
@@ -4616,18 +4739,25 @@
       <c r="E5" t="s">
         <v>193</v>
       </c>
-      <c r="F5" s="8" t="str">
-        <f t="shared" si="0"/>
+      <c r="F5" t="str">
+        <f>LEFT(IF(C5&gt;D5, A5, B5), FIND(",", IF(C5&gt;D5, A5, B5)) - 1)</f>
         <v>ALCARAZ</v>
       </c>
-      <c r="G5" s="8">
-        <f t="shared" si="1"/>
+      <c r="G5">
+        <f>IF(F5=E5, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K5" s="6">
+        <f>4/4</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4637,11 +4767,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3217C8-0180-4F68-B33D-869F44F7E5B7}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4679,10 +4809,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>97</v>
       </c>
       <c r="C2">
@@ -4698,16 +4828,16 @@
         <f>LEFT(IF(C2&gt;D2, A2, B2), FIND(",", IF(C2&gt;D2, A2, B2)) - 1)</f>
         <v>SINNER</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2">
         <f>IF(F2=E2, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" t="s">
         <v>99</v>
       </c>
       <c r="C3">
@@ -4719,33 +4849,42 @@
       <c r="E3" t="s">
         <v>193</v>
       </c>
-      <c r="F3" s="8" t="str">
+      <c r="F3" t="str">
         <f>LEFT(IF(C3&gt;D3, A3, B3), FIND(",", IF(C3&gt;D3, A3, B3)) - 1)</f>
         <v>ALCARAZ</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3">
         <f>IF(F3=E3, 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="6">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J5" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K5" s="6">
         <f>2/2</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G3">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4755,11 +4894,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290BA5AE-209F-4B33-912E-0B335547B6EF}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K30" sqref="K30"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4797,10 +4936,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>192</v>
       </c>
       <c r="C2">
@@ -4812,38 +4951,106 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="str">
+      <c r="F2" t="str">
         <f>LEFT(IF(C2&gt;D2, A2, B2), FIND(",", IF(C2&gt;D2, A2, B2)) - 1)</f>
         <v>SINNER</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2">
         <f>IF(F2=E2, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="6">
         <f>1/1</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J5" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K5" s="6">
+        <f>0/1</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03439C7F-BE26-46C4-AF78-BFBDE843F874}">
+  <dimension ref="B1:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="7.81640625" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B2" s="7"/>
+    </row>
+    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H8" s="8"/>
+      <c r="I8" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="I9" s="11">
+        <v>85</v>
+      </c>
+      <c r="J9" s="12">
+        <f>85/127</f>
+        <v>0.6692913385826772</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H10" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I10" s="10">
+        <v>113</v>
+      </c>
+      <c r="J10" s="9">
+        <f>113/127</f>
+        <v>0.88976377952755903</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/ResultatWimbeldon.xlsx
+++ b/ResultatWimbeldon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikerr\Code\TFG\Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09255360-EEA0-4E0C-9181-0460AA578EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDFF734-68B0-4DFE-8297-2FE72EA13BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" activeTab="7" xr2:uid="{0ED45994-5EFE-4A4E-8BA9-C3AA32741888}"/>
   </bookViews>
@@ -28,7 +28,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Ronda 3'!$A$1:$G$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="208">
   <si>
     <t>Jugador 1</t>
   </si>
@@ -667,6 +666,12 @@
   </si>
   <si>
     <t>% acertats</t>
+  </si>
+  <si>
+    <t>Iker V2 % acert:</t>
+  </si>
+  <si>
+    <t>Iker V2</t>
   </si>
 </sst>
 </file>
@@ -1289,7 +1294,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1470,7 +1475,7 @@
         <v>0.90625</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1493,6 +1498,13 @@
       <c r="G7">
         <f t="shared" si="1"/>
         <v>1</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="K7" s="6">
+        <f>42/64</f>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -2965,7 +2977,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3145,7 +3157,7 @@
         <v>0.84375</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -3168,6 +3180,13 @@
       <c r="G7">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="K7" s="6">
+        <f>23/32</f>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -3844,7 +3863,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4026,7 +4045,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -4049,6 +4068,13 @@
       <c r="G7">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="K7" s="6">
+        <f>12/16</f>
+        <v>0.75</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -4325,7 +4351,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4482,7 +4508,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>99</v>
       </c>
@@ -4505,6 +4531,13 @@
       <c r="G6">
         <f t="shared" si="1"/>
         <v>1</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="K6" s="6">
+        <f>6/8</f>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -4594,11 +4627,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B426FC20-F2D4-42EE-B26E-57F7A91BDF6D}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4755,6 +4788,15 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J6" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="K6" s="6">
+        <f>4/4</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G5">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -4767,11 +4809,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3217C8-0180-4F68-B33D-869F44F7E5B7}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4882,6 +4924,15 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J6" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="K6" s="6">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G3">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -4894,7 +4945,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290BA5AE-209F-4B33-912E-0B335547B6EF}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4986,6 +5037,15 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J6" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="K6" s="6">
+        <f>0/1</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="G2">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
@@ -4998,10 +5058,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03439C7F-BE26-46C4-AF78-BFBDE843F874}">
-  <dimension ref="B1:J10"/>
+  <dimension ref="B1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5034,7 +5094,7 @@
         <v>85</v>
       </c>
       <c r="J9" s="12">
-        <f>85/127</f>
+        <f>I9/127</f>
         <v>0.6692913385826772</v>
       </c>
     </row>
@@ -5046,8 +5106,20 @@
         <v>113</v>
       </c>
       <c r="J10" s="9">
-        <f>113/127</f>
+        <f>I10/127</f>
         <v>0.88976377952755903</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H11" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="I11" s="10">
+        <v>89</v>
+      </c>
+      <c r="J11" s="9">
+        <f>I11/127</f>
+        <v>0.70078740157480313</v>
       </c>
     </row>
   </sheetData>

--- a/ResultatWimbeldon.xlsx
+++ b/ResultatWimbeldon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikerr\Code\TFG\Program\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iker/Code/TFG/Me-vs.-IBM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDFF734-68B0-4DFE-8297-2FE72EA13BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF6CAE5-775F-C74D-A426-811534E3447B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" activeTab="7" xr2:uid="{0ED45994-5EFE-4A4E-8BA9-C3AA32741888}"/>
+    <workbookView xWindow="-120" yWindow="620" windowWidth="25420" windowHeight="16300" activeTab="4" xr2:uid="{0ED45994-5EFE-4A4E-8BA9-C3AA32741888}"/>
   </bookViews>
   <sheets>
     <sheet name="Ronda 1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="209">
   <si>
     <t>Jugador 1</t>
   </si>
@@ -672,6 +672,9 @@
   </si>
   <si>
     <t>Iker V2</t>
+  </si>
+  <si>
+    <t>Iker V3 % acert:</t>
   </si>
 </sst>
 </file>
@@ -882,7 +885,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -974,7 +977,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1292,22 +1295,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733616C7-25F8-4522-B3D0-0114E321248B}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1330,7 +1333,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1355,7 +1358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1380,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1411,7 +1414,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1443,7 +1446,7 @@
         <v>0.578125</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1475,7 +1478,7 @@
         <v>0.90625</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1507,7 +1510,7 @@
         <v>0.65625</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1531,8 +1534,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J8" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="K8" s="6">
+        <f>41/64</f>
+        <v>0.640625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1557,7 +1567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1582,7 +1592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1607,7 +1617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1632,7 +1642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1657,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1682,7 +1692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1707,7 +1717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1732,7 +1742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1757,7 +1767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -1782,7 +1792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -1807,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -1832,7 +1842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -1857,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -1882,7 +1892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -1907,7 +1917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -1932,7 +1942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -1957,7 +1967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -1982,7 +1992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -2007,7 +2017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -2032,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -2057,7 +2067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -2082,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -2107,7 +2117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>93</v>
       </c>
@@ -2132,7 +2142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -2157,7 +2167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>99</v>
       </c>
@@ -2182,7 +2192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>102</v>
       </c>
@@ -2207,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>105</v>
       </c>
@@ -2232,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>108</v>
       </c>
@@ -2257,7 +2267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>111</v>
       </c>
@@ -2282,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>114</v>
       </c>
@@ -2307,7 +2317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>117</v>
       </c>
@@ -2332,7 +2342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>120</v>
       </c>
@@ -2357,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>123</v>
       </c>
@@ -2382,7 +2392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>126</v>
       </c>
@@ -2407,7 +2417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>129</v>
       </c>
@@ -2432,7 +2442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>132</v>
       </c>
@@ -2457,7 +2467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>135</v>
       </c>
@@ -2482,7 +2492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>138</v>
       </c>
@@ -2507,7 +2517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>141</v>
       </c>
@@ -2532,7 +2542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>144</v>
       </c>
@@ -2557,7 +2567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>147</v>
       </c>
@@ -2582,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>150</v>
       </c>
@@ -2607,7 +2617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>153</v>
       </c>
@@ -2632,7 +2642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>156</v>
       </c>
@@ -2657,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>159</v>
       </c>
@@ -2682,7 +2692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>162</v>
       </c>
@@ -2707,7 +2717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>165</v>
       </c>
@@ -2732,7 +2742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>168</v>
       </c>
@@ -2757,7 +2767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>171</v>
       </c>
@@ -2782,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>174</v>
       </c>
@@ -2807,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>176</v>
       </c>
@@ -2832,7 +2842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>179</v>
       </c>
@@ -2857,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>182</v>
       </c>
@@ -2882,7 +2892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>185</v>
       </c>
@@ -2907,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>188</v>
       </c>
@@ -2932,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>191</v>
       </c>
@@ -2977,19 +2987,19 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3012,7 +3022,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -3037,7 +3047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>124</v>
       </c>
@@ -3062,7 +3072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -3093,7 +3103,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -3125,7 +3135,7 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -3157,7 +3167,7 @@
         <v>0.84375</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -3189,7 +3199,7 @@
         <v>0.71875</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>93</v>
       </c>
@@ -3213,8 +3223,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J8" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="K8" s="6">
+        <f>22/32</f>
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -3239,7 +3256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -3264,7 +3281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>99</v>
       </c>
@@ -3289,7 +3306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -3314,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>141</v>
       </c>
@@ -3339,7 +3356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -3364,7 +3381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -3389,7 +3406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>148</v>
       </c>
@@ -3414,7 +3431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>88</v>
       </c>
@@ -3439,7 +3456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>159</v>
       </c>
@@ -3464,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>136</v>
       </c>
@@ -3489,7 +3506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>176</v>
       </c>
@@ -3514,7 +3531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -3539,7 +3556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -3564,7 +3581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>129</v>
       </c>
@@ -3589,7 +3606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -3614,7 +3631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>165</v>
       </c>
@@ -3639,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -3664,7 +3681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>171</v>
       </c>
@@ -3689,7 +3706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3714,7 +3731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -3739,7 +3756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -3764,7 +3781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>188</v>
       </c>
@@ -3789,7 +3806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>118</v>
       </c>
@@ -3814,7 +3831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>106</v>
       </c>
@@ -3863,21 +3880,21 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3900,7 +3917,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3925,7 +3942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -3950,7 +3967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -3981,7 +3998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -4013,7 +4030,7 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -4045,7 +4062,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -4077,7 +4094,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -4101,8 +4118,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J8" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="K8" s="6">
+        <f>12/16</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -4127,7 +4151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -4152,7 +4176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -4177,7 +4201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -4202,7 +4226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>136</v>
       </c>
@@ -4227,7 +4251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>148</v>
       </c>
@@ -4252,7 +4276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>162</v>
       </c>
@@ -4277,7 +4301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>171</v>
       </c>
@@ -4302,7 +4326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>185</v>
       </c>
@@ -4351,21 +4375,21 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4388,7 +4412,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4413,7 +4437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -4444,7 +4468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -4476,7 +4500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -4508,7 +4532,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>99</v>
       </c>
@@ -4540,7 +4564,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>133</v>
       </c>
@@ -4564,8 +4588,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J7" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="K7" s="6">
+        <f>7/8</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>148</v>
       </c>
@@ -4590,7 +4621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>171</v>
       </c>
@@ -4627,25 +4658,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B426FC20-F2D4-42EE-B26E-57F7A91BDF6D}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4668,7 +4699,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -4693,7 +4724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -4724,7 +4755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>133</v>
       </c>
@@ -4756,7 +4787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>192</v>
       </c>
@@ -4788,11 +4819,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J6" s="5" t="s">
         <v>206</v>
       </c>
       <c r="K6" s="6">
+        <f>4/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="K7" s="6">
         <f>4/4</f>
         <v>1</v>
       </c>
@@ -4816,18 +4856,18 @@
       <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4850,7 +4890,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4875,7 +4915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>192</v>
       </c>
@@ -4906,7 +4946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J4" s="5" t="s">
         <v>200</v>
       </c>
@@ -4915,7 +4955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J5" s="5" t="s">
         <v>201</v>
       </c>
@@ -4924,7 +4964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J6" s="5" t="s">
         <v>206</v>
       </c>
@@ -4952,18 +4992,18 @@
       <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4986,7 +5026,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5011,7 +5051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J3" s="3" t="s">
         <v>199</v>
       </c>
@@ -5019,7 +5059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J4" s="5" t="s">
         <v>200</v>
       </c>
@@ -5028,7 +5068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J5" s="5" t="s">
         <v>201</v>
       </c>
@@ -5037,7 +5077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J6" s="5" t="s">
         <v>206</v>
       </c>
@@ -5060,24 +5100,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03439C7F-BE26-46C4-AF78-BFBDE843F874}">
   <dimension ref="B1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="7.81640625" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.83203125" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="7"/>
     </row>
-    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H8" s="8"/>
       <c r="I8" s="14" t="s">
         <v>204</v>
@@ -5086,7 +5126,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="H9" s="13" t="s">
         <v>202</v>
       </c>
@@ -5098,7 +5138,7 @@
         <v>0.6692913385826772</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H10" s="13" t="s">
         <v>203</v>
       </c>
@@ -5110,7 +5150,7 @@
         <v>0.88976377952755903</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H11" s="13" t="s">
         <v>207</v>
       </c>
